--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1386.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1386.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.325395045893885</v>
+        <v>1.195921421051025</v>
       </c>
       <c r="B1">
-        <v>2.514273064184565</v>
+        <v>2.338304996490479</v>
       </c>
       <c r="C1">
-        <v>3.169347692577105</v>
+        <v>6.780253410339355</v>
       </c>
       <c r="D1">
-        <v>3.446773391788055</v>
+        <v>2.324172735214233</v>
       </c>
       <c r="E1">
-        <v>1.055373574963515</v>
+        <v>1.184273719787598</v>
       </c>
     </row>
   </sheetData>
